--- a/fitted_results/fitted_results_competing(sub1_sub5_joint_band)_kernel_norm/channel_importances(basic).xlsx
+++ b/fitted_results/fitted_results_competing(sub1_sub5_joint_band)_kernel_norm/channel_importances(basic).xlsx
@@ -3166,14 +3166,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3349756317459334</v>
+        <v>0.4542383298761554</v>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>OZ</t>
+          <t>POZ</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -3187,18 +3187,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4464807439164819</v>
+        <v>0.3468241388118656</v>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>POZ</t>
+          <t>AF3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.9704612668131987</v>
+        <v>0.6298608965209931</v>
       </c>
     </row>
     <row r="4">
@@ -3208,18 +3208,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2654771288532192</v>
+        <v>0.4890677792493022</v>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PO4</t>
+          <t>AF4</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.9632194326715673</v>
+        <v>0.6264790197568606</v>
       </c>
     </row>
     <row r="5">
@@ -3229,18 +3229,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5422453769427781</v>
+        <v>0.6298608965209931</v>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PO3</t>
+          <t>OZ</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8535338239293665</v>
+        <v>0.6205512974722992</v>
       </c>
     </row>
     <row r="6">
@@ -3250,18 +3250,18 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2885561622346051</v>
+        <v>0.6264790197568606</v>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>CPZ</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.8287033347720831</v>
+        <v>0.6153879148660065</v>
       </c>
     </row>
     <row r="7">
@@ -3271,18 +3271,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.353538432940748</v>
+        <v>0.5754645829529457</v>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PZ</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8011450552973659</v>
+        <v>0.5901787976971484</v>
       </c>
     </row>
     <row r="8">
@@ -3292,18 +3292,18 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1581301956134585</v>
+        <v>0.3044641899339199</v>
       </c>
       <c r="C8" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PO5</t>
+          <t>C6</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7901842524469725</v>
+        <v>0.5797384133352085</v>
       </c>
     </row>
     <row r="9">
@@ -3313,18 +3313,18 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4137911684787579</v>
+        <v>0.1740307796800419</v>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PO6</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7879095455430494</v>
+        <v>0.5754645829529457</v>
       </c>
     </row>
     <row r="10">
@@ -3334,18 +3334,18 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7394338729474237</v>
+        <v>0.3307991992724469</v>
       </c>
       <c r="C10" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PO8</t>
+          <t>FCZ</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.784513188769683</v>
+        <v>0.5646877107360464</v>
       </c>
     </row>
     <row r="11">
@@ -3355,18 +3355,18 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7277947071376419</v>
+        <v>0.2618278657681631</v>
       </c>
       <c r="C11" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7526022306046096</v>
+        <v>0.5615247376342496</v>
       </c>
     </row>
     <row r="12">
@@ -3376,18 +3376,18 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6569506645238126</v>
+        <v>0.3191607462849036</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7394338729474237</v>
+        <v>0.5411794471961821</v>
       </c>
     </row>
     <row r="13">
@@ -3397,18 +3397,18 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5791721839578726</v>
+        <v>0.1858567464676145</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PO7</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.734064626264743</v>
+        <v>0.541159795630183</v>
       </c>
     </row>
     <row r="14">
@@ -3418,18 +3418,18 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3719489252213112</v>
+        <v>0.2926027464816476</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FZ</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7277947071376419</v>
+        <v>0.5307816167661189</v>
       </c>
     </row>
     <row r="15">
@@ -3439,18 +3439,18 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3074932951464047</v>
+        <v>0.5615247376342496</v>
       </c>
       <c r="C15" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P4</t>
+          <t>CP1</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7277244063368586</v>
+        <v>0.5024104071514122</v>
       </c>
     </row>
     <row r="16">
@@ -3460,18 +3460,18 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3535404542108773</v>
+        <v>0.3644034082374662</v>
       </c>
       <c r="C16" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>CP2</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.718767083129051</v>
+        <v>0.4931747729518913</v>
       </c>
     </row>
     <row r="17">
@@ -3481,18 +3481,18 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3474956820893763</v>
+        <v>0.471959205336601</v>
       </c>
       <c r="C17" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>P5</t>
+          <t>FP2</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.6881432922626265</v>
+        <v>0.4890677792493022</v>
       </c>
     </row>
     <row r="18">
@@ -3502,18 +3502,18 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5054543464848523</v>
+        <v>0.4410989020773546</v>
       </c>
       <c r="C18" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>O2</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.6821782224724482</v>
+        <v>0.4797503709794347</v>
       </c>
     </row>
     <row r="19">
@@ -3523,18 +3523,18 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6768775948520437</v>
+        <v>0.446173706844301</v>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC1</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6768775948520437</v>
+        <v>0.4790417582544817</v>
       </c>
     </row>
     <row r="20">
@@ -3544,18 +3544,18 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5773514863860919</v>
+        <v>0.5646877107360464</v>
       </c>
       <c r="C20" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>C3</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.6591810172728442</v>
+        <v>0.4746422507192911</v>
       </c>
     </row>
     <row r="21">
@@ -3565,18 +3565,18 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.627757777850955</v>
+        <v>0.4424699955655958</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F2</t>
+          <t>FC5</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.6569506645238126</v>
+        <v>0.471959205336601</v>
       </c>
     </row>
     <row r="22">
@@ -3586,18 +3586,18 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5195136042264288</v>
+        <v>0.4355353913952287</v>
       </c>
       <c r="C22" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CP6</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.6334030670056989</v>
+        <v>0.4677790397227848</v>
       </c>
     </row>
     <row r="23">
@@ -3607,18 +3607,18 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3812995769092155</v>
+        <v>0.4490750690777155</v>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FC2</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.627757777850955</v>
+        <v>0.4651193716803441</v>
       </c>
     </row>
     <row r="24">
@@ -3628,18 +3628,18 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2984700199554874</v>
+        <v>0.358222551395728</v>
       </c>
       <c r="C24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>CP3</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.6030723578494168</v>
+        <v>0.4585896332466122</v>
       </c>
     </row>
     <row r="25">
@@ -3649,18 +3649,18 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2124490700351145</v>
+        <v>0.4790417582544817</v>
       </c>
       <c r="C25" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.5855530138825195</v>
+        <v>0.4574664010117201</v>
       </c>
     </row>
     <row r="26">
@@ -3670,18 +3670,18 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3847423448250485</v>
+        <v>0.5901787976971484</v>
       </c>
       <c r="C26" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CP4</t>
+          <t>FP1</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.5829488053658012</v>
+        <v>0.4542383298761554</v>
       </c>
     </row>
     <row r="27">
@@ -3691,18 +3691,18 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4014655863201528</v>
+        <v>0.4746422507192911</v>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F4</t>
+          <t>CP4</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.5791721839578726</v>
+        <v>0.4535025297923219</v>
       </c>
     </row>
     <row r="28">
@@ -3712,18 +3712,18 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3274880189621255</v>
+        <v>0.541159795630183</v>
       </c>
       <c r="C28" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FCZ</t>
+          <t>CP5</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.5773514863860919</v>
+        <v>0.4534678391229096</v>
       </c>
     </row>
     <row r="29">
@@ -3733,18 +3733,18 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.05145377424401428</v>
+        <v>0.5307816167661189</v>
       </c>
       <c r="C29" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CP5</t>
+          <t>FC6</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.572885711975316</v>
+        <v>0.4490750690777155</v>
       </c>
     </row>
     <row r="30">
@@ -3754,18 +3754,18 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3519659885185101</v>
+        <v>0.5411794471961821</v>
       </c>
       <c r="C30" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>FC1</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.5513369137571937</v>
+        <v>0.446173706844301</v>
       </c>
     </row>
     <row r="31">
@@ -3775,18 +3775,18 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4244723768281302</v>
+        <v>0.4651193716803441</v>
       </c>
       <c r="C31" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CP3</t>
+          <t>FC2</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.5503396182304022</v>
+        <v>0.4424699955655958</v>
       </c>
     </row>
     <row r="32">
@@ -3796,18 +3796,18 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4413292688483113</v>
+        <v>0.5797384133352085</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>AF3</t>
+          <t>FC3</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.5422453769427781</v>
+        <v>0.4410989020773546</v>
       </c>
     </row>
     <row r="33">
@@ -3817,18 +3817,18 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1861397327338252</v>
+        <v>0.4677790397227848</v>
       </c>
       <c r="C33" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CB1</t>
+          <t>FC4</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.5250546755990141</v>
+        <v>0.4355353913952287</v>
       </c>
     </row>
     <row r="34">
@@ -3838,18 +3838,18 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3581461118260564</v>
+        <v>0.369204118795627</v>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FC4</t>
+          <t>CP6</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.5195136042264288</v>
+        <v>0.435114641950599</v>
       </c>
     </row>
     <row r="35">
@@ -3859,18 +3859,18 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.572885711975316</v>
+        <v>0.4534678391229096</v>
       </c>
       <c r="C35" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CB2</t>
+          <t>PO7</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.518269126294545</v>
+        <v>0.3918701510411114</v>
       </c>
     </row>
     <row r="36">
@@ -3880,18 +3880,18 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.5503396182304022</v>
+        <v>0.4585896332466122</v>
       </c>
       <c r="C36" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FC3</t>
+          <t>PO8</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.5054543464848523</v>
+        <v>0.3853580353984077</v>
       </c>
     </row>
     <row r="37">
@@ -3901,18 +3901,18 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3834484444023739</v>
+        <v>0.5024104071514122</v>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>TP8</t>
+          <t>TP7</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.475221551439562</v>
+        <v>0.369204118795627</v>
       </c>
     </row>
     <row r="38">
@@ -3922,18 +3922,18 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.6153879148660065</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FPZ</t>
+          <t>TP8</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.4464807439164819</v>
+        <v>0.3644491718690002</v>
       </c>
     </row>
     <row r="39">
@@ -3943,18 +3943,18 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3873240846044861</v>
+        <v>0.4931747729518913</v>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>FT7</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.4413292688483113</v>
+        <v>0.3644034082374662</v>
       </c>
     </row>
     <row r="40">
@@ -3964,18 +3964,18 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5829488053658012</v>
+        <v>0.4535025297923219</v>
       </c>
       <c r="C40" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>FT8</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.4244723768281302</v>
+        <v>0.358222551395728</v>
       </c>
     </row>
     <row r="41">
@@ -3985,18 +3985,18 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6334030670056989</v>
+        <v>0.435114641950599</v>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>F3</t>
+          <t>FPZ</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.4137911684787579</v>
+        <v>0.3468241388118656</v>
       </c>
     </row>
     <row r="42">
@@ -4006,18 +4006,18 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.475221551439562</v>
+        <v>0.3644491718690002</v>
       </c>
       <c r="C42" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>PO3</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.4014655863201528</v>
+        <v>0.33411733759285</v>
       </c>
     </row>
     <row r="43">
@@ -4027,18 +4027,18 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.6030723578494168</v>
+        <v>0.4797503709794347</v>
       </c>
       <c r="C43" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CP2</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.3873240846044861</v>
+        <v>0.3307991992724469</v>
       </c>
     </row>
     <row r="44">
@@ -4048,18 +4048,18 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.6881432922626265</v>
+        <v>0.2918295174035767</v>
       </c>
       <c r="C44" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>PO4</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.3847423448250485</v>
+        <v>0.3302679862072069</v>
       </c>
     </row>
     <row r="45">
@@ -4069,18 +4069,18 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.718767083129051</v>
+        <v>0.3181660075556231</v>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CP1</t>
+          <t>CB1</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.3834484444023739</v>
+        <v>0.3259347727555552</v>
       </c>
     </row>
     <row r="46">
@@ -4090,18 +4090,18 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5513369137571937</v>
+        <v>0.3058147835779891</v>
       </c>
       <c r="C46" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FC6</t>
+          <t>F2</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.3812995769092155</v>
+        <v>0.3191607462849036</v>
       </c>
     </row>
     <row r="47">
@@ -4111,18 +4111,18 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.8011450552973659</v>
+        <v>0.1692989809874793</v>
       </c>
       <c r="C47" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>F6</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.3719489252213112</v>
+        <v>0.3181660075556231</v>
       </c>
     </row>
     <row r="48">
@@ -4132,18 +4132,18 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.8287033347720831</v>
+        <v>0.3046488743038134</v>
       </c>
       <c r="C48" t="n">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>TP7</t>
+          <t>CB2</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.3581461118260564</v>
+        <v>0.3095706632641521</v>
       </c>
     </row>
     <row r="49">
@@ -4153,18 +4153,18 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.7277244063368586</v>
+        <v>0.2848919143627717</v>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FT7</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.3535404542108773</v>
+        <v>0.3058147835779891</v>
       </c>
     </row>
     <row r="50">
@@ -4174,18 +4174,18 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.7526022306046096</v>
+        <v>0.2829715887385547</v>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.353538432940748</v>
+        <v>0.3046488743038134</v>
       </c>
     </row>
     <row r="51">
@@ -4195,18 +4195,18 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.6591810172728442</v>
+        <v>0.4574664010117201</v>
       </c>
       <c r="C51" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>F5</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.3519659885185101</v>
+        <v>0.3044641899339199</v>
       </c>
     </row>
     <row r="52">
@@ -4216,18 +4216,18 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.734064626264743</v>
+        <v>0.3918701510411114</v>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FC5</t>
+          <t>F6</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.3474956820893763</v>
+        <v>0.2926027464816476</v>
       </c>
     </row>
     <row r="53">
@@ -4237,18 +4237,18 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.7901842524469725</v>
+        <v>0.01236929826651893</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>FP1</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.3349756317459334</v>
+        <v>0.2918295174035767</v>
       </c>
     </row>
     <row r="54">
@@ -4258,18 +4258,18 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.8535338239293665</v>
+        <v>0.33411733759285</v>
       </c>
       <c r="C54" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.3274880189621255</v>
+        <v>0.2848919143627717</v>
       </c>
     </row>
     <row r="55">
@@ -4279,18 +4279,18 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9704612668131987</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.3074932951464047</v>
+        <v>0.2829715887385547</v>
       </c>
     </row>
     <row r="56">
@@ -4300,18 +4300,18 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9632194326715673</v>
+        <v>0.3302679862072069</v>
       </c>
       <c r="C56" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FT8</t>
+          <t>FZ</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2984700199554874</v>
+        <v>0.2618278657681631</v>
       </c>
     </row>
     <row r="57">
@@ -4321,18 +4321,18 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.7879095455430494</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>AF4</t>
+          <t>F4</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2885561622346051</v>
+        <v>0.1858567464676145</v>
       </c>
     </row>
     <row r="58">
@@ -4342,18 +4342,18 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.784513188769683</v>
+        <v>0.3853580353984077</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>FP2</t>
+          <t>F3</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.2654771288532192</v>
+        <v>0.1740307796800419</v>
       </c>
     </row>
     <row r="59">
@@ -4363,18 +4363,18 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.5250546755990141</v>
+        <v>0.3259347727555552</v>
       </c>
       <c r="C59" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>PZ</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.2124490700351145</v>
+        <v>0.1692989809874793</v>
       </c>
     </row>
     <row r="60">
@@ -4384,18 +4384,18 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.5855530138825195</v>
+        <v>0.07378131530024278</v>
       </c>
       <c r="C60" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.1861397327338252</v>
+        <v>0.07378131530024278</v>
       </c>
     </row>
     <row r="61">
@@ -4405,18 +4405,18 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0.6205512974722992</v>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>F5</t>
+          <t>O2</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.1581301956134585</v>
+        <v>0.07212975654291288</v>
       </c>
     </row>
     <row r="62">
@@ -4426,18 +4426,18 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.6821782224724482</v>
+        <v>0.07212975654291288</v>
       </c>
       <c r="C62" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>PO5</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.05145377424401428</v>
+        <v>0.01236929826651893</v>
       </c>
     </row>
     <row r="63">
@@ -4447,14 +4447,14 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.518269126294545</v>
+        <v>0.3095706632641521</v>
       </c>
       <c r="C63" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CPZ</t>
+          <t>PO6</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005732179314543728</v>
+        <v>0.00574839689737594</v>
       </c>
       <c r="C2" t="n">
         <v>45</v>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7913341322496326</v>
+        <v>0.7933823178291055</v>
       </c>
     </row>
     <row r="3">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.7806231255153007</v>
+        <v>0.7826472331329271</v>
       </c>
     </row>
     <row r="4">
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01372372077090844</v>
+        <v>0.01376098610061938</v>
       </c>
       <c r="C4" t="n">
         <v>44</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.719551591574219</v>
+        <v>0.7214219208129258</v>
       </c>
     </row>
     <row r="5">
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1808366584948873</v>
+        <v>0.1813042924125874</v>
       </c>
       <c r="C5" t="n">
         <v>53</v>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6942025124884177</v>
+        <v>0.6959843833198587</v>
       </c>
     </row>
     <row r="6">
@@ -4598,7 +4598,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2151771063413355</v>
+        <v>0.2157301570021586</v>
       </c>
       <c r="C6" t="n">
         <v>47</v>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6849767038297205</v>
+        <v>0.6867475595140338</v>
       </c>
     </row>
     <row r="7">
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09014733404200115</v>
+        <v>0.09038010860551449</v>
       </c>
       <c r="C7" t="n">
         <v>37</v>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6758576254206616</v>
+        <v>0.6776351597903574</v>
       </c>
     </row>
     <row r="8">
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2723783608382657</v>
+        <v>0.2730727644006947</v>
       </c>
       <c r="C8" t="n">
         <v>43</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6688404420585048</v>
+        <v>0.6705683411323271</v>
       </c>
     </row>
     <row r="9">
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3691528596694305</v>
+        <v>0.3701002140171772</v>
       </c>
       <c r="C9" t="n">
         <v>35</v>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6563897259059814</v>
+        <v>0.6581154076562568</v>
       </c>
     </row>
     <row r="10">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3765281395701203</v>
+        <v>0.3775000652350702</v>
       </c>
       <c r="C10" t="n">
         <v>38</v>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5978539639045488</v>
+        <v>0.5994151668076153</v>
       </c>
     </row>
     <row r="11">
@@ -4703,7 +4703,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3696692885829522</v>
+        <v>0.3706218512644632</v>
       </c>
       <c r="C11" t="n">
         <v>34</v>
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5789889900853495</v>
+        <v>0.580503821748235</v>
       </c>
     </row>
     <row r="12">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3860775341785194</v>
+        <v>0.3870702303815365</v>
       </c>
       <c r="C12" t="n">
         <v>54</v>
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5468196024455141</v>
+        <v>0.5482263976119839</v>
       </c>
     </row>
     <row r="13">
@@ -4745,7 +4745,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3883480363675584</v>
+        <v>0.3893418872025212</v>
       </c>
       <c r="C13" t="n">
         <v>52</v>
@@ -4756,7 +4756,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5432390811493937</v>
+        <v>0.544634248464404</v>
       </c>
     </row>
     <row r="14">
@@ -4766,7 +4766,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3011563148164198</v>
+        <v>0.3019237387880125</v>
       </c>
       <c r="C14" t="n">
         <v>28</v>
@@ -4777,7 +4777,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.5218036579213159</v>
+        <v>0.5231791121856899</v>
       </c>
     </row>
     <row r="15">
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06144321509915507</v>
+        <v>0.061599851261529</v>
       </c>
       <c r="C15" t="n">
         <v>26</v>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5117209246618959</v>
+        <v>0.5130752132181948</v>
       </c>
     </row>
     <row r="16">
@@ -4808,7 +4808,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03319254905653768</v>
+        <v>0.03327815488451957</v>
       </c>
       <c r="C16" t="n">
         <v>29</v>
@@ -4819,7 +4819,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5073784805492698</v>
+        <v>0.5087058031760794</v>
       </c>
     </row>
     <row r="17">
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3132514650450169</v>
+        <v>0.3140574637156002</v>
       </c>
       <c r="C17" t="n">
         <v>25</v>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.492724383169274</v>
+        <v>0.4940173822104432</v>
       </c>
     </row>
     <row r="18">
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4657503327454293</v>
+        <v>0.4669557428227389</v>
       </c>
       <c r="C18" t="n">
         <v>48</v>
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.4916603776883299</v>
+        <v>0.4929349040061481</v>
       </c>
     </row>
     <row r="19">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4832533199994327</v>
+        <v>0.4845115801621613</v>
       </c>
       <c r="C19" t="n">
         <v>19</v>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.490294114682821</v>
+        <v>0.4915657530329964</v>
       </c>
     </row>
     <row r="20">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4751813963144169</v>
+        <v>0.4764147229496807</v>
       </c>
       <c r="C20" t="n">
         <v>36</v>
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.4851450963183623</v>
+        <v>0.4864647851210435</v>
       </c>
     </row>
     <row r="21">
@@ -4913,7 +4913,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.490294114682821</v>
+        <v>0.4915657530329964</v>
       </c>
       <c r="C21" t="n">
         <v>17</v>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.4832533199994327</v>
+        <v>0.4845115801621613</v>
       </c>
     </row>
     <row r="22">
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4787415203849621</v>
+        <v>0.4799731317256528</v>
       </c>
       <c r="C22" t="n">
         <v>20</v>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.4787415203849621</v>
+        <v>0.4799731317256528</v>
       </c>
     </row>
     <row r="23">
@@ -4955,7 +4955,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3347800696384962</v>
+        <v>0.3356385711028587</v>
       </c>
       <c r="C23" t="n">
         <v>18</v>
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.4751813963144169</v>
+        <v>0.4764147229496807</v>
       </c>
     </row>
     <row r="24">
@@ -4976,7 +4976,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.07765058665509805</v>
+        <v>0.07785044518759943</v>
       </c>
       <c r="C24" t="n">
         <v>16</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.4657503327454293</v>
+        <v>0.4669557428227389</v>
       </c>
     </row>
     <row r="25">
@@ -4997,7 +4997,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.08862232302175865</v>
+        <v>0.08885681322678973</v>
       </c>
       <c r="C25" t="n">
         <v>42</v>
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.4427343425900121</v>
+        <v>0.4438805083911701</v>
       </c>
     </row>
     <row r="26">
@@ -5018,7 +5018,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2849726857268031</v>
+        <v>0.2857151650687006</v>
       </c>
       <c r="C26" t="n">
         <v>55</v>
@@ -5029,7 +5029,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.4426624376080435</v>
+        <v>0.44380322680726</v>
       </c>
     </row>
     <row r="27">
@@ -5039,7 +5039,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.492724383169274</v>
+        <v>0.4940173822104432</v>
       </c>
       <c r="C27" t="n">
         <v>51</v>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.4172435501270666</v>
+        <v>0.4183171885274728</v>
       </c>
     </row>
     <row r="28">
@@ -5060,7 +5060,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5117209246618959</v>
+        <v>0.5130752132181948</v>
       </c>
       <c r="C28" t="n">
         <v>39</v>
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.4106767016731627</v>
+        <v>0.411748313916549</v>
       </c>
     </row>
     <row r="29">
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3806877799106267</v>
+        <v>0.3817167800596044</v>
       </c>
       <c r="C29" t="n">
         <v>59</v>
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.4061594206794528</v>
+        <v>0.407207192271164</v>
       </c>
     </row>
     <row r="30">
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5218036579213159</v>
+        <v>0.5231791121856899</v>
       </c>
       <c r="C30" t="n">
         <v>11</v>
@@ -5113,7 +5113,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.3883480363675584</v>
+        <v>0.3893418872025212</v>
       </c>
     </row>
     <row r="31">
@@ -5123,7 +5123,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5073784805492698</v>
+        <v>0.5087058031760794</v>
       </c>
       <c r="C31" t="n">
         <v>10</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.3860775341785194</v>
+        <v>0.3870702303815365</v>
       </c>
     </row>
     <row r="32">
@@ -5144,7 +5144,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3344593213494562</v>
+        <v>0.3353292719887602</v>
       </c>
       <c r="C32" t="n">
         <v>27</v>
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.3806877799106267</v>
+        <v>0.3817167800596044</v>
       </c>
     </row>
     <row r="33">
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1101825655019928</v>
+        <v>0.1104736760404457</v>
       </c>
       <c r="C33" t="n">
         <v>8</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.3765281395701203</v>
+        <v>0.3775000652350702</v>
       </c>
     </row>
     <row r="34">
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1471498211474964</v>
+        <v>0.1475365378478255</v>
       </c>
       <c r="C34" t="n">
         <v>56</v>
@@ -5197,7 +5197,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.3764141789930342</v>
+        <v>0.3773853896049673</v>
       </c>
     </row>
     <row r="35">
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3411722956231378</v>
+        <v>0.3420644736212841</v>
       </c>
       <c r="C35" t="n">
         <v>9</v>
@@ -5218,7 +5218,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.3696692885829522</v>
+        <v>0.3706218512644632</v>
       </c>
     </row>
     <row r="36">
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.5789889900853495</v>
+        <v>0.580503821748235</v>
       </c>
       <c r="C36" t="n">
         <v>7</v>
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.3691528596694305</v>
+        <v>0.3701002140171772</v>
       </c>
     </row>
     <row r="37">
@@ -5249,7 +5249,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.6563897259059814</v>
+        <v>0.6581154076562568</v>
       </c>
       <c r="C37" t="n">
         <v>60</v>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.3681854824494346</v>
+        <v>0.3691360966895374</v>
       </c>
     </row>
     <row r="38">
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4851450963183623</v>
+        <v>0.4864647851210435</v>
       </c>
       <c r="C38" t="n">
         <v>58</v>
@@ -5281,7 +5281,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.3472435890911063</v>
+        <v>0.3481396598087327</v>
       </c>
     </row>
     <row r="39">
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.6758576254206616</v>
+        <v>0.6776351597903574</v>
       </c>
       <c r="C39" t="n">
         <v>33</v>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.3411722956231378</v>
+        <v>0.3420644736212841</v>
       </c>
     </row>
     <row r="40">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5978539639045488</v>
+        <v>0.5994151668076153</v>
       </c>
       <c r="C40" t="n">
         <v>50</v>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.3378625254568668</v>
+        <v>0.3387331606180544</v>
       </c>
     </row>
     <row r="41">
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4106767016731627</v>
+        <v>0.411748313916549</v>
       </c>
       <c r="C41" t="n">
         <v>21</v>
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.3347800696384962</v>
+        <v>0.3356385711028587</v>
       </c>
     </row>
     <row r="42">
@@ -5354,7 +5354,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1930575050518302</v>
+        <v>0.1935646632561516</v>
       </c>
       <c r="C42" t="n">
         <v>30</v>
@@ -5365,7 +5365,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.3344593213494562</v>
+        <v>0.3353292719887602</v>
       </c>
     </row>
     <row r="43">
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2501584626946052</v>
+        <v>0.2508066095086026</v>
       </c>
       <c r="C43" t="n">
         <v>15</v>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.3132514650450169</v>
+        <v>0.3140574637156002</v>
       </c>
     </row>
     <row r="44">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4427343425900121</v>
+        <v>0.4438805083911701</v>
       </c>
       <c r="C44" t="n">
         <v>12</v>
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.3011563148164198</v>
+        <v>0.3019237387880125</v>
       </c>
     </row>
     <row r="45">
@@ -5417,7 +5417,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.6688404420585048</v>
+        <v>0.6705683411323271</v>
       </c>
       <c r="C45" t="n">
         <v>24</v>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.2849726857268031</v>
+        <v>0.2857151650687006</v>
       </c>
     </row>
     <row r="46">
@@ -5438,7 +5438,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.719551591574219</v>
+        <v>0.7214219208129258</v>
       </c>
       <c r="C46" t="n">
         <v>49</v>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.2849324047538015</v>
+        <v>0.2856733311712434</v>
       </c>
     </row>
     <row r="47">
@@ -5459,7 +5459,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.7913341322496326</v>
+        <v>0.7933823178291055</v>
       </c>
       <c r="C47" t="n">
         <v>6</v>
@@ -5470,7 +5470,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.2723783608382657</v>
+        <v>0.2730727644006947</v>
       </c>
     </row>
     <row r="48">
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.7806231255153007</v>
+        <v>0.7826472331329271</v>
       </c>
       <c r="C48" t="n">
         <v>57</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.260772632654227</v>
+        <v>0.2614468547906812</v>
       </c>
     </row>
     <row r="49">
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.6849767038297205</v>
+        <v>0.6867475595140338</v>
       </c>
       <c r="C49" t="n">
         <v>61</v>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.260282205163942</v>
+        <v>0.2609561955413398</v>
       </c>
     </row>
     <row r="50">
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4916603776883299</v>
+        <v>0.4929349040061481</v>
       </c>
       <c r="C50" t="n">
         <v>41</v>
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.2501584626946052</v>
+        <v>0.2508066095086026</v>
       </c>
     </row>
     <row r="51">
@@ -5543,7 +5543,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2849324047538015</v>
+        <v>0.2856733311712434</v>
       </c>
       <c r="C51" t="n">
         <v>4</v>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.2151771063413355</v>
+        <v>0.2157301570021586</v>
       </c>
     </row>
     <row r="52">
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3378625254568668</v>
+        <v>0.3387331606180544</v>
       </c>
       <c r="C52" t="n">
         <v>40</v>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1930575050518302</v>
+        <v>0.1935646632561516</v>
       </c>
     </row>
     <row r="53">
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.4172435501270666</v>
+        <v>0.4183171885274728</v>
       </c>
       <c r="C53" t="n">
         <v>3</v>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1808366584948873</v>
+        <v>0.1813042924125874</v>
       </c>
     </row>
     <row r="54">
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.5432390811493937</v>
+        <v>0.544634248464404</v>
       </c>
       <c r="C54" t="n">
         <v>32</v>
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1471498211474964</v>
+        <v>0.1475365378478255</v>
       </c>
     </row>
     <row r="55">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.6942025124884177</v>
+        <v>0.6959843833198587</v>
       </c>
       <c r="C55" t="n">
         <v>31</v>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1101825655019928</v>
+        <v>0.1104736760404457</v>
       </c>
     </row>
     <row r="56">
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.5468196024455141</v>
+        <v>0.5482263976119839</v>
       </c>
       <c r="C56" t="n">
         <v>5</v>
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.09014733404200115</v>
+        <v>0.09038010860551449</v>
       </c>
     </row>
     <row r="57">
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.4426624376080435</v>
+        <v>0.44380322680726</v>
       </c>
       <c r="C57" t="n">
         <v>23</v>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.08862232302175865</v>
+        <v>0.08885681322678973</v>
       </c>
     </row>
     <row r="58">
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.3764141789930342</v>
+        <v>0.3773853896049673</v>
       </c>
       <c r="C58" t="n">
         <v>22</v>
@@ -5701,7 +5701,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.07765058665509805</v>
+        <v>0.07785044518759943</v>
       </c>
     </row>
     <row r="59">
@@ -5711,7 +5711,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.260772632654227</v>
+        <v>0.2614468547906812</v>
       </c>
       <c r="C59" t="n">
         <v>13</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.06144321509915507</v>
+        <v>0.061599851261529</v>
       </c>
     </row>
     <row r="60">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3472435890911063</v>
+        <v>0.3481396598087327</v>
       </c>
       <c r="C60" t="n">
         <v>14</v>
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.03319254905653768</v>
+        <v>0.03327815488451957</v>
       </c>
     </row>
     <row r="61">
@@ -5753,7 +5753,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.4061594206794528</v>
+        <v>0.407207192271164</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
@@ -5764,7 +5764,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.01372372077090844</v>
+        <v>0.01376098610061938</v>
       </c>
     </row>
     <row r="62">
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3681854824494346</v>
+        <v>0.3691360966895374</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.005732179314543728</v>
+        <v>0.00574839689737594</v>
       </c>
     </row>
     <row r="63">
@@ -5795,7 +5795,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.260282205163942</v>
+        <v>0.2609561955413398</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
